--- a/docs/references.xlsx
+++ b/docs/references.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="121">
   <si>
     <t>USEFUL LINKS</t>
   </si>
@@ -123,6 +123,96 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Cognitive Complexity </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://www.sonarsource.com/resources/white-papers/cognitive-complexity/</t>
+    </r>
+  </si>
+  <si>
+    <t>Sonar docs</t>
+  </si>
+  <si>
+    <t>Coverity Demo</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://www.youtube.com/watch?v=vXmtFL4dWx0</t>
+    </r>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>CodeDX Demo</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://www.youtube.com/watch?v=BiW45FkMdco</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeScene Demo </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://www.youtube.com/watch?v=-pW6HuJvgHQ</t>
+    </r>
+  </si>
+  <si>
+    <t>Squore Demo</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://www.youtube.com/watch?v=mWmOLBwK3fw</t>
+    </r>
+  </si>
+  <si>
+    <t>Kiuwan Demo</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://www.youtube.com/watch?v=TIe14jh3sok</t>
+    </r>
+  </si>
+  <si>
     <t>PAPERS</t>
   </si>
   <si>
@@ -230,15 +320,110 @@
     <t>Book with basic about software testing</t>
   </si>
   <si>
+    <t>GA Campbell, "Cognitive complexity: an overview and evaluation”</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://dl.acm.org/doi/pdf/10.1145/3194164.3194186</t>
+    </r>
+  </si>
+  <si>
+    <t>Cognitive complexity measure explanation</t>
+  </si>
+  <si>
+    <t>Article</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>A. Schreiber, “Towards Visual Analytics Dashboards for Provenance-driven Static Application Security Testing”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://elib.dlr.de/147371/1/Towards_Visual_Analytics_Dashboards_for_Provenance-driven_Static_Application_Security_Testing.pdf</t>
+    </r>
+  </si>
+  <si>
+    <t>Software visualization</t>
+  </si>
+  <si>
+    <t>C. Anslow, S. Marshall, J. Noble, and R. Biddle. SourceVis: Collaborative software visualization for co-located environments.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://citeseerx.ist.psu.edu/viewdoc/download?doi=10.1.1.172.5917&amp;rep=rep1&amp;type=pdf</t>
+    </r>
+  </si>
+  <si>
+    <t>H.Assal,S.Chiasson,andR.Biddle.Cesar:Visualrepresentationof source code vulnerabilities.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://chorus.scs.carleton.ca/wp-content/papercite-data/pdf/assal2016-cesar-vizsec.pdf</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">J. R. Goodall, H. Radwan, and L. Halseth. Visual analysis of code security. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://dl.acm.org/doi/pdf/10.1145/1850795.1850800</t>
+    </r>
+  </si>
+  <si>
     <t>TOOLS</t>
   </si>
   <si>
     <t>Tool</t>
   </si>
   <si>
+    <t>Free</t>
+  </si>
+  <si>
+    <t>Languages</t>
+  </si>
+  <si>
     <t>Tested</t>
   </si>
   <si>
+    <t>FeedBack</t>
+  </si>
+  <si>
     <t>SonarQube</t>
   </si>
   <si>
@@ -253,12 +438,110 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Static analysis </t>
+    <t>PARTIAL</t>
+  </si>
+  <si>
+    <t>Static analysis of code</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>A continuous inspection engine that finds vulnerabilities, bugs and code smells. Also tracks code complexity, unit test coverage and duplication. There isn’t a visual part with the CFG. Cyclomatic complexity is shown on a scatterplots</t>
+  </si>
+  <si>
+    <t>Sourcetrail</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/CoatiSoftware/Sourcetrail</t>
+    </r>
+  </si>
+  <si>
+    <t>An open-source source code explorer that provides interactive dependency graphs and supports multiple programming languages.</t>
+  </si>
+  <si>
+    <t>C, C++, C#, Java, Python, Perl</t>
+  </si>
+  <si>
+    <t>Last release in 2021, code available on github. It only performs static analysis showing the structure of the code. The project has been closed and will have no other releases. Very well done and available for multiple platforms. It could be a good starting point by adding cyclomatic complexity analyzes and various testing.</t>
+  </si>
+  <si>
+    <t>Squore</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://www.vector.com/int/en/products/products-a-z/software/squore/</t>
+    </r>
   </si>
   <si>
     <t>NO</t>
   </si>
   <si>
+    <t>A multi-purpose and multi-language monitoring tool for software projects.</t>
+  </si>
+  <si>
+    <t>NOT YET</t>
+  </si>
+  <si>
+    <t>Very nice dashboard, visual analytics is present. It did a very complete static analyses. It measure complexity, and finally it return a final report.</t>
+  </si>
+  <si>
+    <t>Kiuwan</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://www.kiuwan.com</t>
+    </r>
+  </si>
+  <si>
+    <t>Software Analytics end-to-end platform for static code analysis and automated code review. It covers defect detection, application security &amp; IT Risk Management, with enhanced life cycle and application governance features.</t>
+  </si>
+  <si>
+    <t>Very powerful, cyclomatic complexity present. Similar to SonarQube and Squore.</t>
+  </si>
+  <si>
+    <t>CodeScene</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://codescene.com</t>
+    </r>
+  </si>
+  <si>
+    <t>Behavioral analysis of code. Helps identify, prioritize, and manage technical debt. Measures organizational aspects of developer teams. Automated pull request integrations.</t>
+  </si>
+  <si>
+    <t>Very nice visualization for the various components of the project. Analyze the Technical debt and based the analyses on the number of lines of code.</t>
+  </si>
+  <si>
     <t>McCabe IQ</t>
   </si>
   <si>
@@ -274,6 +557,119 @@
   </si>
   <si>
     <t>Static analysis and cyclomatic complexity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not available </t>
+  </si>
+  <si>
+    <t>Semgrep</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://semgrep.dev</t>
+    </r>
+  </si>
+  <si>
+    <t>Text search command-line utility that is aware of source code semantics.</t>
+  </si>
+  <si>
+    <t>Only parse and search in source code. Not very useful for us</t>
+  </si>
+  <si>
+    <t>HCL AppScan</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://www.hcltechsw.com/appscan</t>
+    </r>
+  </si>
+  <si>
+    <t>Analyzes source code to identify security vulnerabilities while integrating security testing with software development processes and systems.</t>
+  </si>
+  <si>
+    <t>It doesn’t have a visual part. Mainly used for security testing on web application. Cyclomatic complexity not analyzed. Provide a report for the user.</t>
+  </si>
+  <si>
+    <t>Coverity</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://scan.coverity.com</t>
+    </r>
+  </si>
+  <si>
+    <t>Multi-language tool for security and quality issues.</t>
+  </si>
+  <si>
+    <t>NOT DIRECTLY</t>
+  </si>
+  <si>
+    <t>Mainly for security testing. Similar to HCL AppScan</t>
+  </si>
+  <si>
+    <t>Code Dx</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://www.synopsys.com/software-integrity/code-dx.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="15"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Software application vulnerability correlation and management system that uses multiple SAST and DAST tools, as well as the results of manual code reviews.</t>
+    </r>
+  </si>
+  <si>
+    <t>Similar to SonarQube. Can calculate cyclomatic complexity.</t>
+  </si>
+  <si>
+    <t>Code QL</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://codeql.github.com</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">A code searching tool with an emphasis on finding software bugs. </t>
+  </si>
+  <si>
+    <t>Similar to SemGrep. Available for Visual Studio Code.</t>
   </si>
 </sst>
 </file>
@@ -283,7 +679,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -323,8 +719,13 @@
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="15"/>
+      <name val="Helvetica Neue"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -340,6 +741,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="13"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="14"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="16"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="18"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="19"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -403,7 +834,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -425,22 +856,58 @@
     <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -464,7 +931,13 @@
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ff111111"/>
+      <rgbColor rgb="ff72fce9"/>
+      <rgbColor rgb="ffffd931"/>
+      <rgbColor rgb="ff1f2021"/>
+      <rgbColor rgb="ff60d836"/>
+      <rgbColor rgb="fffefffe"/>
       <rgbColor rgb="fffe634d"/>
+      <rgbColor rgb="ff88f94e"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1523,7 +1996,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:C22"/>
+  <dimension ref="A2:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
@@ -1621,75 +2094,71 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+    <row r="9" ht="44.05" customHeight="1">
+      <c r="A9" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" ht="32.05" customHeight="1">
+      <c r="A10" t="s" s="6">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s" s="6">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" ht="32.05" customHeight="1">
+      <c r="A11" t="s" s="6">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s" s="6">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" ht="32.05" customHeight="1">
+      <c r="A12" t="s" s="6">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s" s="6">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" ht="32.05" customHeight="1">
+      <c r="A13" t="s" s="6">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s" s="6">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" ht="32.05" customHeight="1">
+      <c r="A14" t="s" s="6">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s" s="6">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s" s="6">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1702,6 +2171,12 @@
     <hyperlink ref="B6" r:id="rId4" location="" tooltip="" display="https://en.wikipedia.org/wiki/White-box_testing"/>
     <hyperlink ref="B7" r:id="rId5" location="" tooltip="" display="https://www.youtube.com/watch?v=kH9uXvBU3XE&amp;t=201s"/>
     <hyperlink ref="B8" r:id="rId6" location="" tooltip="" display="https://en.wikipedia.org/wiki/Fuzzing"/>
+    <hyperlink ref="B9" r:id="rId7" location="" tooltip="" display="https://www.sonarsource.com/resources/white-papers/cognitive-complexity/"/>
+    <hyperlink ref="B10" r:id="rId8" location="" tooltip="" display="https://www.youtube.com/watch?v=vXmtFL4dWx0"/>
+    <hyperlink ref="B11" r:id="rId9" location="" tooltip="" display="https://www.youtube.com/watch?v=BiW45FkMdco"/>
+    <hyperlink ref="B12" r:id="rId10" location="" tooltip="" display="https://www.youtube.com/watch?v=-pW6HuJvgHQ"/>
+    <hyperlink ref="B13" r:id="rId11" location="" tooltip="" display="https://www.youtube.com/watch?v=mWmOLBwK3fw"/>
+    <hyperlink ref="B14" r:id="rId12" location="" tooltip="" display="https://www.youtube.com/watch?v=TIe14jh3sok"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -1724,16 +2199,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="32.0781" style="8" customWidth="1"/>
-    <col min="2" max="2" width="37.4297" style="8" customWidth="1"/>
-    <col min="3" max="3" width="36.3594" style="8" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="8" customWidth="1"/>
-    <col min="5" max="16384" width="16.3516" style="8" customWidth="1"/>
+    <col min="1" max="1" width="32.0781" style="7" customWidth="1"/>
+    <col min="2" max="2" width="37.4297" style="7" customWidth="1"/>
+    <col min="3" max="3" width="36.3594" style="7" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="16.3516" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.65" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1747,97 +2222,137 @@
         <v>2</v>
       </c>
       <c r="C2" t="s" s="3">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s" s="3">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" ht="68.25" customHeight="1">
       <c r="A3" t="s" s="4">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s" s="4">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s" s="4">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" ht="80.05" customHeight="1">
       <c r="A4" t="s" s="6">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s" s="6">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s" s="6">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s" s="6">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" ht="44.05" customHeight="1">
-      <c r="A5" t="s" s="9">
-        <v>31</v>
+      <c r="A5" t="s" s="8">
+        <v>45</v>
       </c>
       <c r="B5" t="s" s="6">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s" s="6">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s" s="6">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" ht="44.05" customHeight="1">
       <c r="A6" t="s" s="6">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s" s="6">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s" s="6">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s" s="6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" ht="32.05" customHeight="1">
+      <c r="A7" t="s" s="5">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s" s="6">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s" s="6">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s" s="6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" ht="56.05" customHeight="1">
+      <c r="A8" t="s" s="6">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s" s="6">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s" s="6">
+        <v>57</v>
+      </c>
+      <c r="D8" t="s" s="6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" ht="56.05" customHeight="1">
+      <c r="A9" t="s" s="5">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s" s="6">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s" s="6">
+        <v>57</v>
+      </c>
+      <c r="D9" t="s" s="6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" ht="44.05" customHeight="1">
+      <c r="A10" t="s" s="6">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s" s="6">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s" s="6">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s" s="6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" ht="32.05" customHeight="1">
+      <c r="A11" t="s" s="9">
+        <v>62</v>
+      </c>
+      <c r="B11" t="s" s="6">
+        <v>63</v>
+      </c>
+      <c r="C11" t="s" s="6">
+        <v>57</v>
+      </c>
+      <c r="D11" t="s" s="6">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1848,6 +2363,11 @@
     <hyperlink ref="B4" r:id="rId2" location="" tooltip="" display="https://books.google.it/books?hl=it&amp;lr=&amp;id=lysRzUZhc2QC&amp;oi=fnd&amp;pg=PR3&amp;dq=cyclomatic+complexity+mccabe&amp;ots=lVYAkMjP8r&amp;sig=ks25G0QCa3-CqilwEpGAeqOf2-M#v=onepage&amp;q=cyclomatic%20complexity%20mccabe&amp;f=false"/>
     <hyperlink ref="B5" r:id="rId3" location="" tooltip="" display="https://www.researchgate.net/publication/276198111_Black_Box_and_White_Box_Testing_Techniques_-_A_Literature_Review"/>
     <hyperlink ref="B6" r:id="rId4" location="" tooltip="" display="https://fktpm.ru/file/114-the-art-of-software-testing-3-edition.pdf"/>
+    <hyperlink ref="B7" r:id="rId5" location="" tooltip="" display="https://dl.acm.org/doi/pdf/10.1145/3194164.3194186"/>
+    <hyperlink ref="B8" r:id="rId6" location="" tooltip="" display="https://elib.dlr.de/147371/1/Towards_Visual_Analytics_Dashboards_for_Provenance-driven_Static_Application_Security_Testing.pdf"/>
+    <hyperlink ref="B9" r:id="rId7" location="" tooltip="" display="https://citeseerx.ist.psu.edu/viewdoc/download?doi=10.1.1.172.5917&amp;rep=rep1&amp;type=pdf"/>
+    <hyperlink ref="B10" r:id="rId8" location="" tooltip="" display="https://chorus.scs.carleton.ca/wp-content/papercite-data/pdf/assal2016-cesar-vizsec.pdf"/>
+    <hyperlink ref="B11" r:id="rId9" location="" tooltip="" display="https://dl.acm.org/doi/pdf/10.1145/1850795.1850800"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -1862,7 +2382,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:D11"/>
+  <dimension ref="A2:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
@@ -1872,109 +2392,316 @@
   <cols>
     <col min="1" max="1" width="16.3516" style="10" customWidth="1"/>
     <col min="2" max="2" width="26.1953" style="10" customWidth="1"/>
-    <col min="3" max="4" width="16.3516" style="10" customWidth="1"/>
-    <col min="5" max="16384" width="16.3516" style="10" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="35.7891" style="10" customWidth="1"/>
+    <col min="5" max="5" width="12.7812" style="10" customWidth="1"/>
+    <col min="6" max="6" width="9.53125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="42.4453" style="10" customWidth="1"/>
+    <col min="8" max="16384" width="16.3516" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.65" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" t="s" s="3">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s" s="3">
         <v>2</v>
       </c>
       <c r="C2" t="s" s="3">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s" s="3">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="4">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="E2" t="s" s="3">
+        <v>67</v>
+      </c>
+      <c r="F2" t="s" s="3">
+        <v>68</v>
+      </c>
+      <c r="G2" t="s" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" ht="68.25" customHeight="1">
+      <c r="A3" t="s" s="11">
+        <v>70</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>41</v>
-      </c>
-      <c r="C3" t="s" s="4">
-        <v>42</v>
-      </c>
-      <c r="D3" t="s" s="11">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" ht="44.05" customHeight="1">
-      <c r="A4" t="s" s="6">
-        <v>44</v>
+        <v>71</v>
+      </c>
+      <c r="C3" t="s" s="12">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s" s="4">
+        <v>73</v>
+      </c>
+      <c r="E3" t="s" s="13">
+        <v>74</v>
+      </c>
+      <c r="F3" t="s" s="14">
+        <v>75</v>
+      </c>
+      <c r="G3" t="s" s="15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" ht="92.05" customHeight="1">
+      <c r="A4" t="s" s="16">
+        <v>77</v>
       </c>
       <c r="B4" t="s" s="6">
-        <v>45</v>
-      </c>
-      <c r="C4" t="s" s="6">
-        <v>46</v>
-      </c>
-      <c r="D4" t="s" s="12">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+        <v>78</v>
+      </c>
+      <c r="C4" t="s" s="17">
+        <v>75</v>
+      </c>
+      <c r="D4" t="s" s="18">
+        <v>79</v>
+      </c>
+      <c r="E4" t="s" s="18">
+        <v>80</v>
+      </c>
+      <c r="F4" t="s" s="17">
+        <v>75</v>
+      </c>
+      <c r="G4" t="s" s="19">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" ht="44.05" customHeight="1">
+      <c r="A5" t="s" s="16">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s" s="6">
+        <v>83</v>
+      </c>
+      <c r="C5" t="s" s="20">
+        <v>84</v>
+      </c>
+      <c r="D5" t="s" s="18">
+        <v>85</v>
+      </c>
+      <c r="E5" t="s" s="6">
+        <v>74</v>
+      </c>
+      <c r="F5" t="s" s="21">
+        <v>86</v>
+      </c>
+      <c r="G5" t="s" s="6">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" ht="80.05" customHeight="1">
+      <c r="A6" t="s" s="16">
+        <v>88</v>
+      </c>
+      <c r="B6" t="s" s="6">
+        <v>89</v>
+      </c>
+      <c r="C6" t="s" s="20">
+        <v>84</v>
+      </c>
+      <c r="D6" t="s" s="18">
+        <v>90</v>
+      </c>
+      <c r="E6" t="s" s="6">
+        <v>74</v>
+      </c>
+      <c r="F6" t="s" s="21">
+        <v>86</v>
+      </c>
+      <c r="G6" t="s" s="6">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" ht="56.05" customHeight="1">
+      <c r="A7" t="s" s="16">
+        <v>92</v>
+      </c>
+      <c r="B7" t="s" s="6">
+        <v>93</v>
+      </c>
+      <c r="C7" t="s" s="20">
+        <v>84</v>
+      </c>
+      <c r="D7" t="s" s="18">
+        <v>94</v>
+      </c>
+      <c r="E7" t="s" s="6">
+        <v>74</v>
+      </c>
+      <c r="F7" t="s" s="17">
+        <v>75</v>
+      </c>
+      <c r="G7" t="s" s="6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" ht="32.05" customHeight="1">
+      <c r="A8" t="s" s="6">
+        <v>96</v>
+      </c>
+      <c r="B8" t="s" s="6">
+        <v>97</v>
+      </c>
+      <c r="C8" t="s" s="20">
+        <v>84</v>
+      </c>
+      <c r="D8" t="s" s="6">
+        <v>98</v>
+      </c>
+      <c r="E8" s="22"/>
+      <c r="F8" t="s" s="20">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s" s="19">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" ht="32.05" customHeight="1">
+      <c r="A9" t="s" s="6">
+        <v>100</v>
+      </c>
+      <c r="B9" t="s" s="6">
+        <v>101</v>
+      </c>
+      <c r="C9" t="s" s="17">
+        <v>75</v>
+      </c>
+      <c r="D9" t="s" s="23">
+        <v>102</v>
+      </c>
+      <c r="E9" t="s" s="6">
+        <v>74</v>
+      </c>
+      <c r="F9" t="s" s="17">
+        <v>75</v>
+      </c>
+      <c r="G9" t="s" s="6">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" ht="56.05" customHeight="1">
+      <c r="A10" t="s" s="9">
+        <v>104</v>
+      </c>
+      <c r="B10" t="s" s="6">
+        <v>105</v>
+      </c>
+      <c r="C10" t="s" s="20">
+        <v>84</v>
+      </c>
+      <c r="D10" t="s" s="18">
+        <v>106</v>
+      </c>
+      <c r="E10" t="s" s="6">
+        <v>74</v>
+      </c>
+      <c r="F10" t="s" s="17">
+        <v>75</v>
+      </c>
+      <c r="G10" t="s" s="6">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" ht="32.05" customHeight="1">
+      <c r="A11" t="s" s="6">
+        <v>108</v>
+      </c>
+      <c r="B11" t="s" s="6">
+        <v>109</v>
+      </c>
+      <c r="C11" t="s" s="20">
+        <v>84</v>
+      </c>
+      <c r="D11" t="s" s="18">
+        <v>110</v>
+      </c>
+      <c r="E11" t="s" s="6">
+        <v>74</v>
+      </c>
+      <c r="F11" t="s" s="24">
+        <v>111</v>
+      </c>
+      <c r="G11" t="s" s="6">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" ht="56.05" customHeight="1">
+      <c r="A12" t="s" s="6">
+        <v>113</v>
+      </c>
+      <c r="B12" t="s" s="6">
+        <v>114</v>
+      </c>
+      <c r="C12" t="s" s="20">
+        <v>84</v>
+      </c>
+      <c r="D12" t="s" s="6">
+        <v>115</v>
+      </c>
+      <c r="E12" t="s" s="6">
+        <v>74</v>
+      </c>
+      <c r="F12" t="s" s="24">
+        <v>111</v>
+      </c>
+      <c r="G12" t="s" s="6">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" ht="32.05" customHeight="1">
+      <c r="A13" t="s" s="6">
+        <v>117</v>
+      </c>
+      <c r="B13" t="s" s="6">
+        <v>118</v>
+      </c>
+      <c r="C13" t="s" s="20">
+        <v>84</v>
+      </c>
+      <c r="D13" t="s" s="18">
+        <v>119</v>
+      </c>
+      <c r="E13" t="s" s="6">
+        <v>74</v>
+      </c>
+      <c r="F13" t="s" s="24">
+        <v>111</v>
+      </c>
+      <c r="G13" t="s" s="6">
+        <v>120</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" location="" tooltip="" display="https://www.sonarqube.org"/>
-    <hyperlink ref="B4" r:id="rId2" location="" tooltip="" display="http://e.informer.com/mccabe.com/iq_developers.htm"/>
+    <hyperlink ref="B4" r:id="rId2" location="" tooltip="" display="https://github.com/CoatiSoftware/Sourcetrail"/>
+    <hyperlink ref="B5" r:id="rId3" location="" tooltip="" display="https://www.vector.com/int/en/products/products-a-z/software/squore/"/>
+    <hyperlink ref="B6" r:id="rId4" location="" tooltip="" display="https://www.kiuwan.com"/>
+    <hyperlink ref="B7" r:id="rId5" location="" tooltip="" display="https://codescene.com"/>
+    <hyperlink ref="B8" r:id="rId6" location="" tooltip="" display="http://e.informer.com/mccabe.com/iq_developers.htm"/>
+    <hyperlink ref="B9" r:id="rId7" location="" tooltip="" display="https://semgrep.dev"/>
+    <hyperlink ref="B10" r:id="rId8" location="" tooltip="" display="https://www.hcltechsw.com/appscan"/>
+    <hyperlink ref="B11" r:id="rId9" location="" tooltip="" display="https://scan.coverity.com"/>
+    <hyperlink ref="B12" r:id="rId10" location="" tooltip="" display="https://www.synopsys.com/software-integrity/code-dx.html"/>
+    <hyperlink ref="D12" r:id="rId11" location="" tooltip="" display="SAST"/>
+    <hyperlink ref="B13" r:id="rId12" location="" tooltip="" display="https://codeql.github.com"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/docs/references.xlsx
+++ b/docs/references.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
   <si>
     <t>USEFUL LINKS</t>
   </si>
@@ -61,6 +61,47 @@
     <t xml:space="preserve">Wikipedia </t>
   </si>
   <si>
+    <t>Source Code Security Analyzers NIST</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://www.nist.gov/itl/ssd/software-quality-group/source-code-security-analyzers</t>
+    </r>
+  </si>
+  <si>
+    <t>NIST list</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Github list of static analysis tools</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/analysis-tools-dev</t>
+    </r>
+  </si>
+  <si>
+    <t>Github list</t>
+  </si>
+  <si>
     <t>Software Development Process - Course</t>
   </si>
   <si>
@@ -378,7 +419,7 @@
     </r>
   </si>
   <si>
-    <t>H.Assal,S.Chiasson,andR.Biddle.Cesar:Visualrepresentationof source code vulnerabilities.</t>
+    <t>H.Assal, S.Chiasson, and R.Biddle. Cesar: Visual representation of source code vulnerabilities.</t>
   </si>
   <si>
     <r>
@@ -402,7 +443,35 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t>https://dl.acm.org/doi/pdf/10.1145/1850795.1850800</t>
+      <t>https://securedecisions.com/wp-content/uploads/pubs/VisualAnalysisOfCodeSecurity.pdf</t>
+    </r>
+  </si>
+  <si>
+    <t>J.Trumper, “Visualization Techniques for the Analysis of Software Behavior and Related Structures”</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://publishup.uni-potsdam.de/opus4-ubp/frontdoor/deliver/index/docId/6972/file/truemper_diss.pdf</t>
+    </r>
+  </si>
+  <si>
+    <t>S. Diehl. “Software Visualization: Visualizing the Structure, Behaviour, and Evolution of Software”</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://www.researchgate.net/publication/221555679_Software_visualization</t>
     </r>
   </si>
   <si>
@@ -519,7 +588,7 @@
     <t>Software Analytics end-to-end platform for static code analysis and automated code review. It covers defect detection, application security &amp; IT Risk Management, with enhanced life cycle and application governance features.</t>
   </si>
   <si>
-    <t>Very powerful, cyclomatic complexity present. Similar to SonarQube and Squore.</t>
+    <t>Very powerful, cyclomatic complexity present. Similar to SonarQube and Squore. Not interactive, information visualization.</t>
   </si>
   <si>
     <t>CodeScene</t>
@@ -856,13 +925,13 @@
     <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -1996,7 +2065,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:C14"/>
+  <dimension ref="A2:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
@@ -2050,8 +2119,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" ht="32.05" customHeight="1">
-      <c r="A5" t="s" s="6">
+    <row r="5" ht="44.05" customHeight="1">
+      <c r="A5" t="s" s="7">
         <v>10</v>
       </c>
       <c r="B5" t="s" s="6">
@@ -2061,62 +2130,62 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" ht="32.05" customHeight="1">
-      <c r="A6" t="s" s="6">
+    <row r="6" ht="20.05" customHeight="1">
+      <c r="A6" t="s" s="5">
         <v>13</v>
       </c>
       <c r="B6" t="s" s="6">
         <v>14</v>
       </c>
       <c r="C6" t="s" s="6">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" ht="32.05" customHeight="1">
       <c r="A7" t="s" s="6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s" s="6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s" s="6">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" ht="32.05" customHeight="1">
       <c r="A8" t="s" s="6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s" s="6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="9" ht="44.05" customHeight="1">
+    <row r="9" ht="32.05" customHeight="1">
       <c r="A9" t="s" s="6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s" s="6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s" s="6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" ht="32.05" customHeight="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" ht="20.05" customHeight="1">
       <c r="A10" t="s" s="6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s" s="6">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s" s="6">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" ht="32.05" customHeight="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" ht="44.05" customHeight="1">
       <c r="A11" t="s" s="6">
         <v>26</v>
       </c>
@@ -2124,40 +2193,62 @@
         <v>27</v>
       </c>
       <c r="C11" t="s" s="6">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" ht="32.05" customHeight="1">
       <c r="A12" t="s" s="6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s" s="6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s" s="6">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" ht="32.05" customHeight="1">
       <c r="A13" t="s" s="6">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s" s="6">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s" s="6">
         <v>31</v>
-      </c>
-      <c r="C13" t="s" s="6">
-        <v>25</v>
       </c>
     </row>
     <row r="14" ht="32.05" customHeight="1">
       <c r="A14" t="s" s="6">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s" s="6">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s" s="6">
-        <v>25</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" ht="32.05" customHeight="1">
+      <c r="A15" t="s" s="6">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" ht="32.05" customHeight="1">
+      <c r="A16" t="s" s="6">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s" s="6">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s" s="6">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2167,16 +2258,19 @@
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" location="" tooltip="" display="https://en.wikipedia.org/wiki/Static_program_analysis"/>
     <hyperlink ref="B4" r:id="rId2" location="" tooltip="" display="https://en.wikipedia.org/wiki/List_of_tools_for_static_code_analysis"/>
-    <hyperlink ref="B5" r:id="rId3" location="" tooltip="" display="https://classroom.udacity.com/courses/ud805"/>
-    <hyperlink ref="B6" r:id="rId4" location="" tooltip="" display="https://en.wikipedia.org/wiki/White-box_testing"/>
-    <hyperlink ref="B7" r:id="rId5" location="" tooltip="" display="https://www.youtube.com/watch?v=kH9uXvBU3XE&amp;t=201s"/>
-    <hyperlink ref="B8" r:id="rId6" location="" tooltip="" display="https://en.wikipedia.org/wiki/Fuzzing"/>
-    <hyperlink ref="B9" r:id="rId7" location="" tooltip="" display="https://www.sonarsource.com/resources/white-papers/cognitive-complexity/"/>
-    <hyperlink ref="B10" r:id="rId8" location="" tooltip="" display="https://www.youtube.com/watch?v=vXmtFL4dWx0"/>
-    <hyperlink ref="B11" r:id="rId9" location="" tooltip="" display="https://www.youtube.com/watch?v=BiW45FkMdco"/>
-    <hyperlink ref="B12" r:id="rId10" location="" tooltip="" display="https://www.youtube.com/watch?v=-pW6HuJvgHQ"/>
-    <hyperlink ref="B13" r:id="rId11" location="" tooltip="" display="https://www.youtube.com/watch?v=mWmOLBwK3fw"/>
-    <hyperlink ref="B14" r:id="rId12" location="" tooltip="" display="https://www.youtube.com/watch?v=TIe14jh3sok"/>
+    <hyperlink ref="B5" r:id="rId3" location="" tooltip="" display="https://www.nist.gov/itl/ssd/software-quality-group/source-code-security-analyzers"/>
+    <hyperlink ref="A6" r:id="rId4" location="" tooltip="" display="static analysis tools"/>
+    <hyperlink ref="B6" r:id="rId5" location="" tooltip="" display="https://github.com/analysis-tools-dev"/>
+    <hyperlink ref="B7" r:id="rId6" location="" tooltip="" display="https://classroom.udacity.com/courses/ud805"/>
+    <hyperlink ref="B8" r:id="rId7" location="" tooltip="" display="https://en.wikipedia.org/wiki/White-box_testing"/>
+    <hyperlink ref="B9" r:id="rId8" location="" tooltip="" display="https://www.youtube.com/watch?v=kH9uXvBU3XE&amp;t=201s"/>
+    <hyperlink ref="B10" r:id="rId9" location="" tooltip="" display="https://en.wikipedia.org/wiki/Fuzzing"/>
+    <hyperlink ref="B11" r:id="rId10" location="" tooltip="" display="https://www.sonarsource.com/resources/white-papers/cognitive-complexity/"/>
+    <hyperlink ref="B12" r:id="rId11" location="" tooltip="" display="https://www.youtube.com/watch?v=vXmtFL4dWx0"/>
+    <hyperlink ref="B13" r:id="rId12" location="" tooltip="" display="https://www.youtube.com/watch?v=BiW45FkMdco"/>
+    <hyperlink ref="B14" r:id="rId13" location="" tooltip="" display="https://www.youtube.com/watch?v=-pW6HuJvgHQ"/>
+    <hyperlink ref="B15" r:id="rId14" location="" tooltip="" display="https://www.youtube.com/watch?v=mWmOLBwK3fw"/>
+    <hyperlink ref="B16" r:id="rId15" location="" tooltip="" display="https://www.youtube.com/watch?v=TIe14jh3sok"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -2191,7 +2285,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:D11"/>
+  <dimension ref="A2:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
@@ -2199,16 +2293,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="32.0781" style="7" customWidth="1"/>
-    <col min="2" max="2" width="37.4297" style="7" customWidth="1"/>
-    <col min="3" max="3" width="36.3594" style="7" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="16.3516" style="7" customWidth="1"/>
+    <col min="1" max="1" width="32.0781" style="8" customWidth="1"/>
+    <col min="2" max="2" width="37.4297" style="8" customWidth="1"/>
+    <col min="3" max="3" width="36.3594" style="8" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="16.3516" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.65" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2222,136 +2316,164 @@
         <v>2</v>
       </c>
       <c r="C2" t="s" s="3">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s" s="3">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" ht="68.25" customHeight="1">
       <c r="A3" t="s" s="4">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s" s="4">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s" s="4">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" ht="80.05" customHeight="1">
       <c r="A4" t="s" s="6">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s" s="6">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s" s="6">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s" s="6">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" ht="44.05" customHeight="1">
-      <c r="A5" t="s" s="8">
-        <v>45</v>
+      <c r="A5" t="s" s="9">
+        <v>51</v>
       </c>
       <c r="B5" t="s" s="6">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s" s="6">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s" s="6">
         <v>46</v>
-      </c>
-      <c r="C5" t="s" s="6">
-        <v>47</v>
-      </c>
-      <c r="D5" t="s" s="6">
-        <v>40</v>
       </c>
     </row>
     <row r="6" ht="44.05" customHeight="1">
       <c r="A6" t="s" s="6">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s" s="6">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s" s="6">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s" s="6">
         <v>50</v>
-      </c>
-      <c r="D6" t="s" s="6">
-        <v>44</v>
       </c>
     </row>
     <row r="7" ht="32.05" customHeight="1">
       <c r="A7" t="s" s="5">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s" s="6">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s" s="6">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s" s="6">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" ht="56.05" customHeight="1">
       <c r="A8" t="s" s="6">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s" s="6">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s" s="6">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s" s="6">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" ht="56.05" customHeight="1">
       <c r="A9" t="s" s="5">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s" s="6">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s" s="6">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s" s="6">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" ht="44.05" customHeight="1">
       <c r="A10" t="s" s="6">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s" s="6">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s" s="6">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s" s="6">
         <v>60</v>
       </c>
-      <c r="B10" t="s" s="6">
-        <v>61</v>
-      </c>
-      <c r="C10" t="s" s="6">
-        <v>57</v>
-      </c>
-      <c r="D10" t="s" s="6">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" ht="32.05" customHeight="1">
-      <c r="A11" t="s" s="9">
-        <v>62</v>
+    </row>
+    <row r="11" ht="44.05" customHeight="1">
+      <c r="A11" t="s" s="7">
+        <v>68</v>
       </c>
       <c r="B11" t="s" s="6">
+        <v>69</v>
+      </c>
+      <c r="C11" t="s" s="6">
         <v>63</v>
       </c>
-      <c r="C11" t="s" s="6">
-        <v>57</v>
-      </c>
       <c r="D11" t="s" s="6">
-        <v>54</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" ht="44.05" customHeight="1">
+      <c r="A12" t="s" s="5">
+        <v>70</v>
+      </c>
+      <c r="B12" t="s" s="6">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s" s="6">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" ht="44.05" customHeight="1">
+      <c r="A13" t="s" s="7">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s" s="6">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s" s="6">
+        <v>63</v>
+      </c>
+      <c r="D13" t="s" s="6">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2367,7 +2489,9 @@
     <hyperlink ref="B8" r:id="rId6" location="" tooltip="" display="https://elib.dlr.de/147371/1/Towards_Visual_Analytics_Dashboards_for_Provenance-driven_Static_Application_Security_Testing.pdf"/>
     <hyperlink ref="B9" r:id="rId7" location="" tooltip="" display="https://citeseerx.ist.psu.edu/viewdoc/download?doi=10.1.1.172.5917&amp;rep=rep1&amp;type=pdf"/>
     <hyperlink ref="B10" r:id="rId8" location="" tooltip="" display="https://chorus.scs.carleton.ca/wp-content/papercite-data/pdf/assal2016-cesar-vizsec.pdf"/>
-    <hyperlink ref="B11" r:id="rId9" location="" tooltip="" display="https://dl.acm.org/doi/pdf/10.1145/1850795.1850800"/>
+    <hyperlink ref="B11" r:id="rId9" location="" tooltip="" display="https://securedecisions.com/wp-content/uploads/pubs/VisualAnalysisOfCodeSecurity.pdf"/>
+    <hyperlink ref="B12" r:id="rId10" location="" tooltip="" display="https://publishup.uni-potsdam.de/opus4-ubp/frontdoor/deliver/index/docId/6972/file/truemper_diss.pdf"/>
+    <hyperlink ref="B13" r:id="rId11" location="" tooltip="" display="https://www.researchgate.net/publication/221555679_Software_visualization"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -2402,7 +2526,7 @@
   <sheetData>
     <row r="1" ht="28.65" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2413,276 +2537,276 @@
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" t="s" s="3">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s" s="3">
         <v>2</v>
       </c>
       <c r="C2" t="s" s="3">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s" s="3">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s" s="3">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F2" t="s" s="3">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s" s="3">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" ht="68.25" customHeight="1">
       <c r="A3" t="s" s="11">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s" s="12">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s" s="4">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E3" t="s" s="13">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F3" t="s" s="14">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G3" t="s" s="15">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" ht="92.05" customHeight="1">
       <c r="A4" t="s" s="16">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s" s="6">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s" s="17">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s" s="18">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E4" t="s" s="18">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F4" t="s" s="17">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G4" t="s" s="19">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" ht="44.05" customHeight="1">
       <c r="A5" t="s" s="16">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s" s="6">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s" s="20">
+        <v>94</v>
+      </c>
+      <c r="D5" t="s" s="18">
+        <v>95</v>
+      </c>
+      <c r="E5" t="s" s="6">
         <v>84</v>
       </c>
-      <c r="D5" t="s" s="18">
-        <v>85</v>
-      </c>
-      <c r="E5" t="s" s="6">
-        <v>74</v>
-      </c>
       <c r="F5" t="s" s="21">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="G5" t="s" s="6">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" ht="80.05" customHeight="1">
       <c r="A6" t="s" s="16">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s" s="6">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s" s="20">
+        <v>94</v>
+      </c>
+      <c r="D6" t="s" s="18">
+        <v>100</v>
+      </c>
+      <c r="E6" t="s" s="6">
         <v>84</v>
       </c>
-      <c r="D6" t="s" s="18">
-        <v>90</v>
-      </c>
-      <c r="E6" t="s" s="6">
-        <v>74</v>
-      </c>
-      <c r="F6" t="s" s="21">
-        <v>86</v>
+      <c r="F6" t="s" s="17">
+        <v>85</v>
       </c>
       <c r="G6" t="s" s="6">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" ht="56.05" customHeight="1">
       <c r="A7" t="s" s="16">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s" s="6">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s" s="20">
+        <v>94</v>
+      </c>
+      <c r="D7" t="s" s="18">
+        <v>104</v>
+      </c>
+      <c r="E7" t="s" s="6">
         <v>84</v>
       </c>
-      <c r="D7" t="s" s="18">
-        <v>94</v>
-      </c>
-      <c r="E7" t="s" s="6">
-        <v>74</v>
-      </c>
       <c r="F7" t="s" s="17">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s" s="6">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" ht="32.05" customHeight="1">
       <c r="A8" t="s" s="6">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s" s="6">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C8" t="s" s="20">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D8" t="s" s="6">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E8" s="22"/>
       <c r="F8" t="s" s="20">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s" s="19">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" ht="32.05" customHeight="1">
       <c r="A9" t="s" s="6">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B9" t="s" s="6">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C9" t="s" s="17">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s" s="23">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E9" t="s" s="6">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F9" t="s" s="17">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G9" t="s" s="6">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" ht="56.05" customHeight="1">
-      <c r="A10" t="s" s="9">
-        <v>104</v>
+      <c r="A10" t="s" s="7">
+        <v>114</v>
       </c>
       <c r="B10" t="s" s="6">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C10" t="s" s="20">
+        <v>94</v>
+      </c>
+      <c r="D10" t="s" s="18">
+        <v>116</v>
+      </c>
+      <c r="E10" t="s" s="6">
         <v>84</v>
       </c>
-      <c r="D10" t="s" s="18">
-        <v>106</v>
-      </c>
-      <c r="E10" t="s" s="6">
-        <v>74</v>
-      </c>
       <c r="F10" t="s" s="17">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G10" t="s" s="6">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" ht="32.05" customHeight="1">
       <c r="A11" t="s" s="6">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s" s="6">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C11" t="s" s="20">
+        <v>94</v>
+      </c>
+      <c r="D11" t="s" s="18">
+        <v>120</v>
+      </c>
+      <c r="E11" t="s" s="6">
         <v>84</v>
       </c>
-      <c r="D11" t="s" s="18">
-        <v>110</v>
-      </c>
-      <c r="E11" t="s" s="6">
-        <v>74</v>
-      </c>
       <c r="F11" t="s" s="24">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="G11" t="s" s="6">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" ht="56.05" customHeight="1">
       <c r="A12" t="s" s="6">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s" s="6">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C12" t="s" s="20">
+        <v>94</v>
+      </c>
+      <c r="D12" t="s" s="6">
+        <v>125</v>
+      </c>
+      <c r="E12" t="s" s="6">
         <v>84</v>
       </c>
-      <c r="D12" t="s" s="6">
-        <v>115</v>
-      </c>
-      <c r="E12" t="s" s="6">
-        <v>74</v>
-      </c>
       <c r="F12" t="s" s="24">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="G12" t="s" s="6">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" ht="32.05" customHeight="1">
       <c r="A13" t="s" s="6">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s" s="6">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C13" t="s" s="20">
+        <v>94</v>
+      </c>
+      <c r="D13" t="s" s="18">
+        <v>129</v>
+      </c>
+      <c r="E13" t="s" s="6">
         <v>84</v>
       </c>
-      <c r="D13" t="s" s="18">
-        <v>119</v>
-      </c>
-      <c r="E13" t="s" s="6">
-        <v>74</v>
-      </c>
       <c r="F13" t="s" s="24">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="G13" t="s" s="6">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/docs/references.xlsx
+++ b/docs/references.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="137">
   <si>
     <t>USEFUL LINKS</t>
   </si>
@@ -254,6 +254,20 @@
     </r>
   </si>
   <si>
+    <t>List of unit testing frameworks</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://en.wikipedia.org/wiki/List_of_unit_testing_frameworks</t>
+    </r>
+  </si>
+  <si>
     <t>PAPERS</t>
   </si>
   <si>
@@ -361,50 +375,33 @@
     <t>Book with basic about software testing</t>
   </si>
   <si>
-    <t>GA Campbell, "Cognitive complexity: an overview and evaluation”</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://dl.acm.org/doi/pdf/10.1145/3194164.3194186</t>
-    </r>
-  </si>
-  <si>
-    <t>Cognitive complexity measure explanation</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>A. Schreiber, “Towards Visual Analytics Dashboards for Provenance-driven Static Application Security Testing”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://elib.dlr.de/147371/1/Towards_Visual_Analytics_Dashboards_for_Provenance-driven_Static_Application_Security_Testing.pdf</t>
+    </r>
+  </si>
+  <si>
+    <t>Software visualization</t>
   </si>
   <si>
     <t>Article</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>A. Schreiber, “Towards Visual Analytics Dashboards for Provenance-driven Static Application Security Testing”</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://elib.dlr.de/147371/1/Towards_Visual_Analytics_Dashboards_for_Provenance-driven_Static_Application_Security_Testing.pdf</t>
-    </r>
-  </si>
-  <si>
-    <t>Software visualization</t>
-  </si>
-  <si>
     <t>C. Anslow, S. Marshall, J. Noble, and R. Biddle. SourceVis: Collaborative software visualization for co-located environments.</t>
   </si>
   <si>
@@ -475,6 +472,51 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Wijayasiriwardhane, T. K., A Method to Generate Test Cases for Performing Basis Path Testing </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://www.researchgate.net/publication/329876606_A_Method_to_Generate_Test_Cases_for_Performing_Basis_Path_Testing</t>
+    </r>
+  </si>
+  <si>
+    <t>Test cases automation</t>
+  </si>
+  <si>
+    <t>Wijayasiriwardhane, T. K., An automated tool to generate test cases for performing basis path testing</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://www.researchgate.net/publication/261262597_An_automated_tool_to_generate_test_cases_for_performing_basis_path_testing</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Poole J,  “A Method to Determine a Basis Set of Paths to Perform Program Testing” </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://nvlpubs.nist.gov/nistpubs/Legacy/IR/nistir5737.pdf</t>
+    </r>
+  </si>
+  <si>
     <t>TOOLS</t>
   </si>
   <si>
@@ -711,7 +753,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="15"/>
+        <color indexed="12"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
       <t>Software application vulnerability correlation and management system that uses multiple SAST and DAST tools, as well as the results of manual code reviews.</t>
@@ -783,14 +825,14 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="13"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
       <i val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="15"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
@@ -809,13 +851,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor indexed="14"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="14"/>
+        <fgColor indexed="15"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -903,7 +945,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -928,10 +970,13 @@
     <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -943,13 +988,13 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -957,9 +1002,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
@@ -973,10 +1015,19 @@
     <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -999,10 +1050,10 @@
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ff1f2021"/>
       <rgbColor rgb="ff111111"/>
       <rgbColor rgb="ff72fce9"/>
       <rgbColor rgb="ffffd931"/>
-      <rgbColor rgb="ff1f2021"/>
       <rgbColor rgb="ff60d836"/>
       <rgbColor rgb="fffefffe"/>
       <rgbColor rgb="fffe634d"/>
@@ -2065,7 +2116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:C16"/>
+  <dimension ref="A2:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
@@ -2249,6 +2300,17 @@
       </c>
       <c r="C16" t="s" s="6">
         <v>31</v>
+      </c>
+    </row>
+    <row r="17" ht="32.05" customHeight="1">
+      <c r="A17" t="s" s="8">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s" s="6">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s" s="6">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2271,6 +2333,7 @@
     <hyperlink ref="B14" r:id="rId13" location="" tooltip="" display="https://www.youtube.com/watch?v=-pW6HuJvgHQ"/>
     <hyperlink ref="B15" r:id="rId14" location="" tooltip="" display="https://www.youtube.com/watch?v=mWmOLBwK3fw"/>
     <hyperlink ref="B16" r:id="rId15" location="" tooltip="" display="https://www.youtube.com/watch?v=TIe14jh3sok"/>
+    <hyperlink ref="B17" r:id="rId16" location="" tooltip="" display="https://en.wikipedia.org/wiki/List_of_unit_testing_frameworks"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -2285,7 +2348,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:D13"/>
+  <dimension ref="A2:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
@@ -2293,16 +2356,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="32.0781" style="8" customWidth="1"/>
-    <col min="2" max="2" width="37.4297" style="8" customWidth="1"/>
-    <col min="3" max="3" width="36.3594" style="8" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="8" customWidth="1"/>
-    <col min="5" max="16384" width="16.3516" style="8" customWidth="1"/>
+    <col min="1" max="1" width="32.0781" style="9" customWidth="1"/>
+    <col min="2" max="2" width="37.4297" style="9" customWidth="1"/>
+    <col min="3" max="3" width="36.3594" style="9" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="9" customWidth="1"/>
+    <col min="5" max="16384" width="16.3516" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.65" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2316,164 +2379,192 @@
         <v>2</v>
       </c>
       <c r="C2" t="s" s="3">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s" s="3">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" ht="68.25" customHeight="1">
       <c r="A3" t="s" s="4">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s" s="4">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s" s="4">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" ht="80.05" customHeight="1">
       <c r="A4" t="s" s="6">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s" s="6">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s" s="6">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s" s="6">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" ht="44.05" customHeight="1">
+      <c r="A5" t="s" s="10">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s" s="6">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s" s="6">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s" s="6">
         <v>48</v>
-      </c>
-      <c r="C4" t="s" s="6">
-        <v>49</v>
-      </c>
-      <c r="D4" t="s" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" ht="44.05" customHeight="1">
-      <c r="A5" t="s" s="9">
-        <v>51</v>
-      </c>
-      <c r="B5" t="s" s="6">
-        <v>52</v>
-      </c>
-      <c r="C5" t="s" s="6">
-        <v>53</v>
-      </c>
-      <c r="D5" t="s" s="6">
-        <v>46</v>
       </c>
     </row>
     <row r="6" ht="44.05" customHeight="1">
       <c r="A6" t="s" s="6">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s" s="6">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s" s="6">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" ht="32.05" customHeight="1">
-      <c r="A7" t="s" s="5">
-        <v>57</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" ht="56.05" customHeight="1">
+      <c r="A7" t="s" s="6">
+        <v>59</v>
       </c>
       <c r="B7" t="s" s="6">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s" s="6">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s" s="6">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" ht="56.05" customHeight="1">
-      <c r="A8" t="s" s="6">
+      <c r="A8" t="s" s="5">
+        <v>63</v>
+      </c>
+      <c r="B8" t="s" s="6">
+        <v>64</v>
+      </c>
+      <c r="C8" t="s" s="6">
         <v>61</v>
       </c>
-      <c r="B8" t="s" s="6">
+      <c r="D8" t="s" s="6">
         <v>62</v>
       </c>
-      <c r="C8" t="s" s="6">
-        <v>63</v>
-      </c>
-      <c r="D8" t="s" s="6">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" ht="56.05" customHeight="1">
-      <c r="A9" t="s" s="5">
-        <v>64</v>
+    </row>
+    <row r="9" ht="44.05" customHeight="1">
+      <c r="A9" t="s" s="6">
+        <v>65</v>
       </c>
       <c r="B9" t="s" s="6">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s" s="6">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s" s="6">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" ht="44.05" customHeight="1">
-      <c r="A10" t="s" s="6">
-        <v>66</v>
+      <c r="A10" t="s" s="7">
+        <v>67</v>
       </c>
       <c r="B10" t="s" s="6">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s" s="6">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s" s="6">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" ht="44.05" customHeight="1">
-      <c r="A11" t="s" s="7">
-        <v>68</v>
+      <c r="A11" t="s" s="5">
+        <v>69</v>
       </c>
       <c r="B11" t="s" s="6">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s" s="6">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s" s="6">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" ht="44.05" customHeight="1">
-      <c r="A12" t="s" s="5">
-        <v>70</v>
+      <c r="A12" t="s" s="7">
+        <v>71</v>
       </c>
       <c r="B12" t="s" s="6">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s" s="6">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s" s="6">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" ht="44.05" customHeight="1">
-      <c r="A13" t="s" s="7">
-        <v>72</v>
+      <c r="A13" t="s" s="6">
+        <v>73</v>
       </c>
       <c r="B13" t="s" s="6">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s" s="6">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D13" t="s" s="6">
-        <v>50</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" ht="44.05" customHeight="1">
+      <c r="A14" t="s" s="6">
+        <v>76</v>
+      </c>
+      <c r="B14" t="s" s="6">
+        <v>77</v>
+      </c>
+      <c r="C14" t="s" s="6">
+        <v>75</v>
+      </c>
+      <c r="D14" t="s" s="6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" ht="44.05" customHeight="1">
+      <c r="A15" t="s" s="6">
+        <v>78</v>
+      </c>
+      <c r="B15" t="s" s="6">
+        <v>79</v>
+      </c>
+      <c r="C15" t="s" s="6">
+        <v>75</v>
+      </c>
+      <c r="D15" t="s" s="6">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2485,13 +2576,15 @@
     <hyperlink ref="B4" r:id="rId2" location="" tooltip="" display="https://books.google.it/books?hl=it&amp;lr=&amp;id=lysRzUZhc2QC&amp;oi=fnd&amp;pg=PR3&amp;dq=cyclomatic+complexity+mccabe&amp;ots=lVYAkMjP8r&amp;sig=ks25G0QCa3-CqilwEpGAeqOf2-M#v=onepage&amp;q=cyclomatic%20complexity%20mccabe&amp;f=false"/>
     <hyperlink ref="B5" r:id="rId3" location="" tooltip="" display="https://www.researchgate.net/publication/276198111_Black_Box_and_White_Box_Testing_Techniques_-_A_Literature_Review"/>
     <hyperlink ref="B6" r:id="rId4" location="" tooltip="" display="https://fktpm.ru/file/114-the-art-of-software-testing-3-edition.pdf"/>
-    <hyperlink ref="B7" r:id="rId5" location="" tooltip="" display="https://dl.acm.org/doi/pdf/10.1145/3194164.3194186"/>
-    <hyperlink ref="B8" r:id="rId6" location="" tooltip="" display="https://elib.dlr.de/147371/1/Towards_Visual_Analytics_Dashboards_for_Provenance-driven_Static_Application_Security_Testing.pdf"/>
-    <hyperlink ref="B9" r:id="rId7" location="" tooltip="" display="https://citeseerx.ist.psu.edu/viewdoc/download?doi=10.1.1.172.5917&amp;rep=rep1&amp;type=pdf"/>
-    <hyperlink ref="B10" r:id="rId8" location="" tooltip="" display="https://chorus.scs.carleton.ca/wp-content/papercite-data/pdf/assal2016-cesar-vizsec.pdf"/>
-    <hyperlink ref="B11" r:id="rId9" location="" tooltip="" display="https://securedecisions.com/wp-content/uploads/pubs/VisualAnalysisOfCodeSecurity.pdf"/>
-    <hyperlink ref="B12" r:id="rId10" location="" tooltip="" display="https://publishup.uni-potsdam.de/opus4-ubp/frontdoor/deliver/index/docId/6972/file/truemper_diss.pdf"/>
-    <hyperlink ref="B13" r:id="rId11" location="" tooltip="" display="https://www.researchgate.net/publication/221555679_Software_visualization"/>
+    <hyperlink ref="B7" r:id="rId5" location="" tooltip="" display="https://elib.dlr.de/147371/1/Towards_Visual_Analytics_Dashboards_for_Provenance-driven_Static_Application_Security_Testing.pdf"/>
+    <hyperlink ref="B8" r:id="rId6" location="" tooltip="" display="https://citeseerx.ist.psu.edu/viewdoc/download?doi=10.1.1.172.5917&amp;rep=rep1&amp;type=pdf"/>
+    <hyperlink ref="B9" r:id="rId7" location="" tooltip="" display="https://chorus.scs.carleton.ca/wp-content/papercite-data/pdf/assal2016-cesar-vizsec.pdf"/>
+    <hyperlink ref="B10" r:id="rId8" location="" tooltip="" display="https://securedecisions.com/wp-content/uploads/pubs/VisualAnalysisOfCodeSecurity.pdf"/>
+    <hyperlink ref="B11" r:id="rId9" location="" tooltip="" display="https://publishup.uni-potsdam.de/opus4-ubp/frontdoor/deliver/index/docId/6972/file/truemper_diss.pdf"/>
+    <hyperlink ref="B12" r:id="rId10" location="" tooltip="" display="https://www.researchgate.net/publication/221555679_Software_visualization"/>
+    <hyperlink ref="B13" r:id="rId11" location="" tooltip="" display="https://www.researchgate.net/publication/329876606_A_Method_to_Generate_Test_Cases_for_Performing_Basis_Path_Testing"/>
+    <hyperlink ref="B14" r:id="rId12" location="" tooltip="" display="https://www.researchgate.net/publication/261262597_An_automated_tool_to_generate_test_cases_for_performing_basis_path_testing"/>
+    <hyperlink ref="B15" r:id="rId13" location="" tooltip="" display="https://nvlpubs.nist.gov/nistpubs/Legacy/IR/nistir5737.pdf"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -2506,7 +2599,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G13"/>
+  <dimension ref="A2:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
@@ -2514,19 +2607,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="10" customWidth="1"/>
-    <col min="2" max="2" width="26.1953" style="10" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="35.7891" style="10" customWidth="1"/>
-    <col min="5" max="5" width="12.7812" style="10" customWidth="1"/>
-    <col min="6" max="6" width="9.53125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="42.4453" style="10" customWidth="1"/>
-    <col min="8" max="16384" width="16.3516" style="10" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="11" customWidth="1"/>
+    <col min="2" max="2" width="26.1953" style="11" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="35.7891" style="11" customWidth="1"/>
+    <col min="5" max="5" width="12.7812" style="11" customWidth="1"/>
+    <col min="6" max="6" width="9.53125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="42.4453" style="11" customWidth="1"/>
+    <col min="8" max="16384" width="16.3516" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.65" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2537,277 +2630,286 @@
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" t="s" s="3">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s" s="3">
         <v>2</v>
       </c>
       <c r="C2" t="s" s="3">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s" s="3">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s" s="3">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F2" t="s" s="3">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G2" t="s" s="3">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" ht="68.25" customHeight="1">
-      <c r="A3" t="s" s="11">
-        <v>80</v>
+      <c r="A3" t="s" s="12">
+        <v>86</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>81</v>
-      </c>
-      <c r="C3" t="s" s="12">
-        <v>82</v>
+        <v>87</v>
+      </c>
+      <c r="C3" t="s" s="13">
+        <v>88</v>
       </c>
       <c r="D3" t="s" s="4">
-        <v>83</v>
-      </c>
-      <c r="E3" t="s" s="13">
-        <v>84</v>
-      </c>
-      <c r="F3" t="s" s="14">
-        <v>85</v>
-      </c>
-      <c r="G3" t="s" s="15">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="E3" t="s" s="14">
+        <v>90</v>
+      </c>
+      <c r="F3" t="s" s="15">
+        <v>91</v>
+      </c>
+      <c r="G3" t="s" s="16">
+        <v>92</v>
       </c>
     </row>
     <row r="4" ht="92.05" customHeight="1">
-      <c r="A4" t="s" s="16">
-        <v>87</v>
+      <c r="A4" t="s" s="17">
+        <v>93</v>
       </c>
       <c r="B4" t="s" s="6">
-        <v>88</v>
-      </c>
-      <c r="C4" t="s" s="17">
-        <v>85</v>
-      </c>
-      <c r="D4" t="s" s="18">
-        <v>89</v>
-      </c>
-      <c r="E4" t="s" s="18">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s" s="18">
+        <v>91</v>
+      </c>
+      <c r="D4" t="s" s="8">
+        <v>95</v>
+      </c>
+      <c r="E4" t="s" s="8">
+        <v>96</v>
+      </c>
+      <c r="F4" t="s" s="18">
+        <v>91</v>
+      </c>
+      <c r="G4" t="s" s="19">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" ht="44.05" customHeight="1">
+      <c r="A5" t="s" s="17">
+        <v>98</v>
+      </c>
+      <c r="B5" t="s" s="6">
+        <v>99</v>
+      </c>
+      <c r="C5" t="s" s="20">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s" s="8">
+        <v>101</v>
+      </c>
+      <c r="E5" t="s" s="6">
         <v>90</v>
       </c>
-      <c r="F4" t="s" s="17">
-        <v>85</v>
-      </c>
-      <c r="G4" t="s" s="19">
+      <c r="F5" t="s" s="21">
+        <v>102</v>
+      </c>
+      <c r="G5" t="s" s="6">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" ht="80.05" customHeight="1">
+      <c r="A6" t="s" s="17">
+        <v>104</v>
+      </c>
+      <c r="B6" t="s" s="6">
+        <v>105</v>
+      </c>
+      <c r="C6" t="s" s="20">
+        <v>100</v>
+      </c>
+      <c r="D6" t="s" s="8">
+        <v>106</v>
+      </c>
+      <c r="E6" t="s" s="6">
+        <v>90</v>
+      </c>
+      <c r="F6" t="s" s="18">
         <v>91</v>
       </c>
-    </row>
-    <row r="5" ht="44.05" customHeight="1">
-      <c r="A5" t="s" s="16">
-        <v>92</v>
-      </c>
-      <c r="B5" t="s" s="6">
-        <v>93</v>
-      </c>
-      <c r="C5" t="s" s="20">
-        <v>94</v>
-      </c>
-      <c r="D5" t="s" s="18">
-        <v>95</v>
-      </c>
-      <c r="E5" t="s" s="6">
-        <v>84</v>
-      </c>
-      <c r="F5" t="s" s="21">
-        <v>96</v>
-      </c>
-      <c r="G5" t="s" s="6">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" ht="80.05" customHeight="1">
-      <c r="A6" t="s" s="16">
-        <v>98</v>
-      </c>
-      <c r="B6" t="s" s="6">
-        <v>99</v>
-      </c>
-      <c r="C6" t="s" s="20">
-        <v>94</v>
-      </c>
-      <c r="D6" t="s" s="18">
+      <c r="G6" t="s" s="6">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" ht="56.05" customHeight="1">
+      <c r="A7" t="s" s="17">
+        <v>108</v>
+      </c>
+      <c r="B7" t="s" s="6">
+        <v>109</v>
+      </c>
+      <c r="C7" t="s" s="20">
         <v>100</v>
       </c>
-      <c r="E6" t="s" s="6">
-        <v>84</v>
-      </c>
-      <c r="F6" t="s" s="17">
-        <v>85</v>
-      </c>
-      <c r="G6" t="s" s="6">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" ht="56.05" customHeight="1">
-      <c r="A7" t="s" s="16">
-        <v>102</v>
-      </c>
-      <c r="B7" t="s" s="6">
-        <v>103</v>
-      </c>
-      <c r="C7" t="s" s="20">
-        <v>94</v>
-      </c>
-      <c r="D7" t="s" s="18">
-        <v>104</v>
+      <c r="D7" t="s" s="8">
+        <v>110</v>
       </c>
       <c r="E7" t="s" s="6">
-        <v>84</v>
-      </c>
-      <c r="F7" t="s" s="17">
-        <v>85</v>
+        <v>90</v>
+      </c>
+      <c r="F7" t="s" s="18">
+        <v>91</v>
       </c>
       <c r="G7" t="s" s="6">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" ht="32.05" customHeight="1">
       <c r="A8" t="s" s="6">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B8" t="s" s="6">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C8" t="s" s="20">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s" s="6">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E8" s="22"/>
       <c r="F8" t="s" s="20">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s" s="19">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" ht="32.05" customHeight="1">
       <c r="A9" t="s" s="6">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s" s="6">
-        <v>111</v>
-      </c>
-      <c r="C9" t="s" s="17">
-        <v>85</v>
+        <v>117</v>
+      </c>
+      <c r="C9" t="s" s="18">
+        <v>91</v>
       </c>
       <c r="D9" t="s" s="23">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E9" t="s" s="6">
-        <v>84</v>
-      </c>
-      <c r="F9" t="s" s="17">
-        <v>85</v>
+        <v>90</v>
+      </c>
+      <c r="F9" t="s" s="18">
+        <v>91</v>
       </c>
       <c r="G9" t="s" s="6">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" ht="56.05" customHeight="1">
       <c r="A10" t="s" s="7">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B10" t="s" s="6">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C10" t="s" s="20">
-        <v>94</v>
-      </c>
-      <c r="D10" t="s" s="18">
-        <v>116</v>
+        <v>100</v>
+      </c>
+      <c r="D10" t="s" s="8">
+        <v>122</v>
       </c>
       <c r="E10" t="s" s="6">
-        <v>84</v>
-      </c>
-      <c r="F10" t="s" s="17">
-        <v>85</v>
+        <v>90</v>
+      </c>
+      <c r="F10" t="s" s="18">
+        <v>91</v>
       </c>
       <c r="G10" t="s" s="6">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" ht="32.05" customHeight="1">
       <c r="A11" t="s" s="6">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B11" t="s" s="6">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C11" t="s" s="20">
-        <v>94</v>
-      </c>
-      <c r="D11" t="s" s="18">
-        <v>120</v>
+        <v>100</v>
+      </c>
+      <c r="D11" t="s" s="8">
+        <v>126</v>
       </c>
       <c r="E11" t="s" s="6">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F11" t="s" s="24">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="G11" t="s" s="6">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" ht="56.05" customHeight="1">
       <c r="A12" t="s" s="6">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s" s="6">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C12" t="s" s="20">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D12" t="s" s="6">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E12" t="s" s="6">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F12" t="s" s="24">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="G12" t="s" s="6">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" ht="32.05" customHeight="1">
       <c r="A13" t="s" s="6">
+        <v>133</v>
+      </c>
+      <c r="B13" t="s" s="6">
+        <v>134</v>
+      </c>
+      <c r="C13" t="s" s="20">
+        <v>100</v>
+      </c>
+      <c r="D13" t="s" s="8">
+        <v>135</v>
+      </c>
+      <c r="E13" t="s" s="6">
+        <v>90</v>
+      </c>
+      <c r="F13" t="s" s="24">
         <v>127</v>
       </c>
-      <c r="B13" t="s" s="6">
-        <v>128</v>
-      </c>
-      <c r="C13" t="s" s="20">
-        <v>94</v>
-      </c>
-      <c r="D13" t="s" s="18">
-        <v>129</v>
-      </c>
-      <c r="E13" t="s" s="6">
-        <v>84</v>
-      </c>
-      <c r="F13" t="s" s="24">
-        <v>121</v>
-      </c>
       <c r="G13" t="s" s="6">
-        <v>130</v>
-      </c>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" ht="20.05" customHeight="1">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
